--- a/code/vocab_csv/namespaces.xlsx
+++ b/code/vocab_csv/namespaces.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="252">
   <si>
     <t>preffix</t>
   </si>
@@ -259,73 +259,73 @@
     <t>AI Technology concepts extending DPV</t>
   </si>
   <si>
-    <t>https://w3id.org/dpv/v2.0#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/risk#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/examples#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/rights#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/use-cases#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/nace#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/legal/eu/gdpr#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/pd#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/tech#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/legal#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/rights/eu#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/legal/eu/dga#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/legal/eu/aiact#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/legal/eu/nis2#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/loc#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/legal/eu#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/legal/de#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/legal/ie#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/legal/gb#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/legal/us#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/legal/in#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/justifications#</t>
-  </si>
-  <si>
-    <t>https://w3id.org/dpv/v2.0/ai#</t>
+    <t>https://w3id.org/dpv/2.0#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/risk#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/examples#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/rights#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/use-cases#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/nace#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/legal/eu/gdpr#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/pd#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/tech#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/legal#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/rights/eu#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/legal/eu/dga#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/legal/eu/aiact#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/legal/eu/nis2#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/loc#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/legal/eu#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/legal/de#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/legal/ie#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/legal/gb#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/legal/us#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/legal/in#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/justifications#</t>
+  </si>
+  <si>
+    <t>https://w3id.org/dpv/2.0/ai#</t>
   </si>
   <si>
     <t>dct</t>
@@ -542,6 +542,15 @@
   </si>
   <si>
     <t>Roles</t>
+  </si>
+  <si>
+    <t>bibo</t>
+  </si>
+  <si>
+    <t>http://purl.org/ontology/bibo/</t>
+  </si>
+  <si>
+    <t>Bibliographic Ontology</t>
   </si>
   <si>
     <t>dpv-nace</t>
@@ -2889,6 +2898,17 @@
         <v>175</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -2916,8 +2936,9 @@
     <hyperlink r:id="rId23" ref="B24"/>
     <hyperlink r:id="rId24" ref="B25"/>
     <hyperlink r:id="rId25" ref="B26"/>
+    <hyperlink r:id="rId26" ref="B27"/>
   </hyperlinks>
-  <drawing r:id="rId26"/>
+  <drawing r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -2933,10 +2954,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>28</v>
@@ -2953,13 +2974,13 @@
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D2" s="8">
         <v>44601.0</v>
@@ -2973,13 +2994,13 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D3" s="8">
         <v>44601.0</v>
@@ -2993,13 +3014,13 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D4" s="8">
         <v>44727.0</v>
@@ -3008,18 +3029,18 @@
         <v>11</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D5" s="8">
         <v>44650.0</v>
@@ -3028,34 +3049,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D7" s="8">
         <v>44601.0</v>
@@ -3069,13 +3090,13 @@
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D8" s="8">
         <v>44601.0</v>
@@ -3089,13 +3110,13 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D9" s="8">
         <v>44601.0</v>
@@ -3109,13 +3130,13 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D10" s="8">
         <v>44727.0</v>
@@ -3124,18 +3145,18 @@
         <v>11</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D11" s="8">
         <v>44650.0</v>
@@ -3144,18 +3165,18 @@
         <v>11</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D12" s="8">
         <v>44650.0</v>
@@ -3164,18 +3185,18 @@
         <v>11</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D13" s="8">
         <v>44601.0</v>
@@ -3189,13 +3210,13 @@
     </row>
     <row r="14">
       <c r="A14" s="31" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D14" s="8">
         <v>44601.0</v>
@@ -3209,13 +3230,13 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D15" s="8">
         <v>44601.0</v>
@@ -3229,13 +3250,13 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D16" s="8">
         <v>44727.0</v>
@@ -3244,18 +3265,18 @@
         <v>11</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D17" s="8">
         <v>44650.0</v>
@@ -3264,18 +3285,18 @@
         <v>11</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D18" s="8">
         <v>44650.0</v>
@@ -3284,18 +3305,18 @@
         <v>11</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D19" s="8">
         <v>44734.0</v>
@@ -3309,13 +3330,13 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D20" s="8">
         <v>44734.0</v>
@@ -3329,13 +3350,13 @@
     </row>
     <row r="21">
       <c r="A21" s="32" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D21" s="34">
         <v>44734.0</v>
@@ -3365,13 +3386,13 @@
     </row>
     <row r="22">
       <c r="A22" s="32" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D22" s="34">
         <v>44734.0</v>
@@ -3401,13 +3422,13 @@
     </row>
     <row r="23">
       <c r="A23" s="32" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D23" s="34">
         <v>44734.0</v>
@@ -3437,13 +3458,13 @@
     </row>
     <row r="24">
       <c r="A24" s="32" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D24" s="34">
         <v>45189.0</v>
